--- a/26. Recherche opérationelle en Excel/12 - MULTIPLE- EXCELLENT FICHIER AVEC TRANSPORT,SAC A DOS,/Excel-Solver-Examples-Distribution(1).xlsx
+++ b/26. Recherche opérationelle en Excel/12 - MULTIPLE- EXCELLENT FICHIER AVEC TRANSPORT,SAC A DOS,/Excel-Solver-Examples-Distribution(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\python-data-science\26. Recherche opérationelle en Excel\12 - MULTIPLE- EXCELLENT FICHIER AVEC TRANSPORT,SAC A DOS,\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estelle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
